--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll IncomeDeduct.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll IncomeDeduct.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\Imports\payroll\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import Payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4CBCDE72-49F9-4D45-A1AA-47F01DD90F2F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B29327A-67A7-4B5E-91A0-ADFF53E835CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{92450AB6-7032-427E-875E-11875AFA5E7E}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
   <si>
     <t>company_code</t>
   </si>
@@ -567,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1F2E37-426D-4143-AF13-B62D47D39A74}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -640,49 +640,9 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" s="5" customFormat="1" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="5" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="5">
-        <v>99</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="5">
-        <v>1</v>
-      </c>
-      <c r="H2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="I2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="J2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="K2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="M2" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="O2" s="5">
-        <v>1</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -692,7 +652,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>

--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll IncomeDeduct.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll IncomeDeduct.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import Payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B29327A-67A7-4B5E-91A0-ADFF53E835CD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D46EADC-A246-463C-ACC7-01B85799E037}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{92450AB6-7032-427E-875E-11875AFA5E7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" activeTab="1" xr2:uid="{92450AB6-7032-427E-875E-11875AFA5E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>company_code</t>
   </si>
@@ -89,9 +89,6 @@
   </si>
   <si>
     <t>N</t>
-  </si>
-  <si>
-    <t>เลขที่  (null)</t>
   </si>
   <si>
     <t>ชื่อ ภาษาไทย ความยาวไม่เกิน 200 ตัว</t>
@@ -132,6 +129,15 @@
   </si>
   <si>
     <t>รหัสบริษัท</t>
+  </si>
+  <si>
+    <t>เป็นค่าว่างได้</t>
+  </si>
+  <si>
+    <t>เพิ่มข้อมูล ต้องไม่เป็นค่าว่าง</t>
+  </si>
+  <si>
+    <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
   </si>
 </sst>
 </file>
@@ -225,7 +231,7 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -250,6 +256,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -569,7 +578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1F2E37-426D-4143-AF13-B62D47D39A74}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
@@ -649,15 +658,16 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46C1E702-FDCA-4E8A-9E5F-B1352BCEE7A3}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:O3"/>
+  <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="2" width="15.90625" style="5" customWidth="1"/>
+    <col min="1" max="1" width="15.90625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="29.7265625" style="5" customWidth="1"/>
     <col min="3" max="3" width="21.26953125" style="5" customWidth="1"/>
     <col min="4" max="5" width="15.90625" style="5" customWidth="1"/>
     <col min="6" max="6" width="45.453125" style="5" customWidth="1"/>
@@ -670,55 +680,59 @@
     <col min="13" max="13" width="26.453125" style="5" customWidth="1"/>
     <col min="14" max="14" width="24.90625" style="5" customWidth="1"/>
     <col min="15" max="15" width="52.08984375" style="5" customWidth="1"/>
-    <col min="16" max="16384" width="8.7265625" style="5"/>
+    <col min="16" max="16" width="8.7265625" style="5"/>
+    <col min="17" max="18" width="25.7265625" customWidth="1"/>
+    <col min="19" max="16384" width="8.7265625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="E1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="G1" s="6" t="s">
+        <v>26</v>
+      </c>
+      <c r="H1" s="6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I1" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="J1" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="K1" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="L1" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="E1" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="F1" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="I1" s="6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J1" s="6" t="s">
-        <v>30</v>
-      </c>
-      <c r="K1" s="6" t="s">
-        <v>31</v>
-      </c>
-      <c r="L1" s="6" t="s">
-        <v>25</v>
-      </c>
       <c r="M1" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="6" t="s">
-        <v>32</v>
-      </c>
+        <v>31</v>
+      </c>
+      <c r="Q1" s="9"/>
+      <c r="R1" s="9"/>
     </row>
-    <row r="2" spans="1:15" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:18" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -764,8 +778,14 @@
       <c r="O2" s="3" t="s">
         <v>14</v>
       </c>
+      <c r="Q2" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>35</v>
+      </c>
     </row>
-    <row r="3" spans="1:15" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5" t="s">
         <v>1</v>
       </c>
@@ -807,8 +827,9 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="M1:N1"/>
+    <mergeCell ref="Q1:R1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll IncomeDeduct.xlsx
+++ b/src/assets/OPRFileImport/(OPR)Import Payroll/(OPR)Import Payroll IncomeDeduct.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20401"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20402"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\OPR\OPR\src\assets\OPRFileImport\(OPR)Import Payroll\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D46EADC-A246-463C-ACC7-01B85799E037}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{30E5ACA8-EA0E-4F51-B561-1434346E2AE6}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" activeTab="1" xr2:uid="{92450AB6-7032-427E-875E-11875AFA5E7E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="14380" windowHeight="4070" xr2:uid="{92450AB6-7032-427E-875E-11875AFA5E7E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -122,9 +122,6 @@
     <t>คำนวณประกันสังคม Y/N</t>
   </si>
   <si>
-    <t>มาตรา 40(1) = 1 , 40(2) = 2 , 40(3) = 3 , 40(1)(2) = 4</t>
-  </si>
-  <si>
     <t>หัก ณ ที่จ่าย%  Y = ต้องกรอกจำนวนเงินหัก /N = ไม่ต้องกรอกจำนวนเงินหัก</t>
   </si>
   <si>
@@ -138,6 +135,9 @@
   </si>
   <si>
     <t>เลขที่  (null)  ตัวเลขเท่านั้น</t>
+  </si>
+  <si>
+    <t>มาตรา 40(1) = 1 , 40(2) = 2 , 40(1)(2) = 3</t>
   </si>
 </sst>
 </file>
@@ -578,8 +578,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB1F2E37-426D-4143-AF13-B62D47D39A74}">
   <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -660,8 +660,8 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:R3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -687,10 +687,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="40.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C1" s="2" t="s">
         <v>23</v>
@@ -723,11 +723,11 @@
         <v>24</v>
       </c>
       <c r="M1" s="8" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="N1" s="8"/>
       <c r="O1" s="6" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="Q1" s="9"/>
       <c r="R1" s="9"/>
@@ -779,10 +779,10 @@
         <v>14</v>
       </c>
       <c r="Q2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="R2" s="3" t="s">
         <v>34</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="3" spans="1:18" ht="45.5" customHeight="1" x14ac:dyDescent="0.35">
